--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_37.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77179.51961925687</v>
+        <v>5151068.340509117</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77179.51961925687</v>
+        <v>5151068.340509117</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1264674173.147027</v>
+        <v>46096898.53185347</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12993.6016504848</v>
+        <v>1028331.91122424</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25407.4861841048</v>
+        <v>1954737.281382664</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37810.25458043582</v>
+        <v>2881142.651541089</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50473.48163234669</v>
+        <v>3806619.502480471</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63136.70868425752</v>
+        <v>4732096.353419852</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75799.93184174891</v>
+        <v>5657573.204359233</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88463.08887040829</v>
+        <v>6583050.055298612</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101126.3120278997</v>
+        <v>7508526.906237987</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113789.5390798106</v>
+        <v>8434003.757177364</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>126452.7661317214</v>
+        <v>9359480.608116742</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>139115.9892892129</v>
+        <v>10284957.45905612</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>151779.2163411237</v>
+        <v>11210434.3099955</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>164442.4433930346</v>
+        <v>12135911.16093489</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>177105.6704449454</v>
+        <v>13061388.01187428</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>189768.8974968564</v>
+        <v>13986864.86281367</v>
       </c>
     </row>
   </sheetData>
